--- a/etc/M001_sampleinfo.xlsx
+++ b/etc/M001_sampleinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhover/git/mapseq-processing/etc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hover/git/mapseq-processing/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8D8602-59C4-7E49-95AF-CEBF97FC63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE9C9F-8EFC-D948-8E87-12F874CE6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="940" windowWidth="44240" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1300" yWindow="500" windowWidth="48940" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t>Site information</t>
   </si>
@@ -123,10 +123,43 @@
     <t>Brain</t>
   </si>
   <si>
-    <t>target-control</t>
-  </si>
-  <si>
     <t>M001</t>
+  </si>
+  <si>
+    <t>target-lone-control</t>
+  </si>
+  <si>
+    <t>target-water-control</t>
+  </si>
+  <si>
+    <t>Site Information Codes</t>
+  </si>
+  <si>
+    <t>injection</t>
+  </si>
+  <si>
+    <t>injection-water-control</t>
+  </si>
+  <si>
+    <t>target-wt-control</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>User sample expected to be low</t>
+  </si>
+  <si>
+    <t>Core untreated sample</t>
+  </si>
+  <si>
+    <t>Core empty sample</t>
+  </si>
+  <si>
+    <t>Core L1 control</t>
+  </si>
+  <si>
+    <t>User sample</t>
   </si>
 </sst>
 </file>
@@ -443,7 +476,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -518,6 +551,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +837,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -819,15 +853,17 @@
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -853,7 +889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
@@ -879,7 +915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -905,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
@@ -931,7 +967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>19</v>
       </c>
@@ -957,7 +993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
@@ -982,8 +1018,14 @@
       <c r="H7" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1050,14 @@
       <c r="H8" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>20</v>
       </c>
@@ -1034,8 +1082,14 @@
       <c r="H9" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1060,8 +1114,14 @@
       <c r="H10" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>10</v>
       </c>
@@ -1086,8 +1146,14 @@
       <c r="H11" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>11</v>
       </c>
@@ -1112,8 +1178,14 @@
       <c r="H12" s="17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
@@ -1138,8 +1210,14 @@
       <c r="H13" s="17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>13</v>
       </c>
@@ -1164,8 +1242,14 @@
       <c r="H14" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
@@ -1191,7 +1275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>3</v>
       </c>
@@ -1484,7 +1568,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="28">
         <v>25</v>
@@ -1504,7 +1588,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" s="29">
         <v>26</v>

--- a/etc/M001_sampleinfo.xlsx
+++ b/etc/M001_sampleinfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hover/git/mapseq-processing/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EE9C9F-8EFC-D948-8E87-12F874CE6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BEC680-DADA-F843-BDB3-8F170F20F5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="48940" windowHeight="27700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="600" windowWidth="39620" windowHeight="22440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample information" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>M001</t>
   </si>
   <si>
-    <t>target-lone-control</t>
-  </si>
-  <si>
     <t>target-water-control</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>User sample</t>
+  </si>
+  <si>
+    <t>target-lone</t>
   </si>
 </sst>
 </file>
@@ -839,8 +839,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,10 +1019,10 @@
         <v>6</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>26</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1179,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1211,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1243,10 +1243,10 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E27" s="28">
         <v>25</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="29">
         <v>26</v>
